--- a/TestData/HIS_DATA_WorkBook.xlsx
+++ b/TestData/HIS_DATA_WorkBook.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
     <sheet name="Front_Office" sheetId="3" r:id="rId2"/>
     <sheet name="Masters" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Inventory_Options" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t>Queries</t>
   </si>
@@ -88,9 +88,6 @@
     <t>http://10.10.100.44/HisTraining/Login/Login</t>
   </si>
   <si>
-    <t>MyHis@552350</t>
-  </si>
-  <si>
     <t xml:space="preserve">UAT </t>
   </si>
   <si>
@@ -191,6 +188,12 @@
   </si>
   <si>
     <t>Mani@123456</t>
+  </si>
+  <si>
+    <t>Direct Receipt</t>
+  </si>
+  <si>
+    <t>Option_Name</t>
   </si>
 </sst>
 </file>
@@ -614,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,10 +637,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -662,7 +665,7 @@
         <v>10013887</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>14</v>
@@ -673,7 +676,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -708,10 +711,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
@@ -719,51 +722,51 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
         <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -771,28 +774,28 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="3">
         <v>9029032344</v>
@@ -800,59 +803,59 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
         <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -912,7 +915,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3">
         <v>10013938</v>
@@ -927,7 +930,7 @@
         <v>10013938</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="8">
         <v>8328053255</v>
@@ -940,109 +943,115 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E106"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="G106" sqref="A1:G106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="7" max="7" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>

--- a/TestData/HIS_DATA_WorkBook.xlsx
+++ b/TestData/HIS_DATA_WorkBook.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
     <sheet name="Front_Office" sheetId="3" r:id="rId2"/>
     <sheet name="Masters" sheetId="2" r:id="rId3"/>
     <sheet name="Inventory_Options" sheetId="4" r:id="rId4"/>
+    <sheet name="Indent_Items" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
   <si>
     <t>Queries</t>
   </si>
@@ -169,15 +171,9 @@
     <t>Success Message</t>
   </si>
   <si>
-    <t>SundharLal</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>Married</t>
   </si>
   <si>
@@ -187,13 +183,55 @@
     <t>uppal</t>
   </si>
   <si>
-    <t>Mani@123456</t>
-  </si>
-  <si>
     <t>Direct Receipt</t>
   </si>
   <si>
     <t>Option_Name</t>
+  </si>
+  <si>
+    <t>HisPassword@1234</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>KiranLal</t>
+  </si>
+  <si>
+    <t>option_name</t>
+  </si>
+  <si>
+    <t>facility_name</t>
+  </si>
+  <si>
+    <t>AIG Hospitals, Gachibowli</t>
+  </si>
+  <si>
+    <t>A-B1- PHARMACY MAIN STORE</t>
+  </si>
+  <si>
+    <t>Department_name</t>
+  </si>
+  <si>
+    <t>1/4 X 3/16 STRAIGHT CONNECTOR</t>
+  </si>
+  <si>
+    <t>search_text</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Indent Items</t>
+  </si>
+  <si>
+    <t>ACIVIR 200MG DT TAB</t>
+  </si>
+  <si>
+    <t>Indent Approval</t>
+  </si>
+  <si>
+    <t>Mani@552350</t>
   </si>
 </sst>
 </file>
@@ -203,7 +241,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +284,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -283,7 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -311,6 +367,23 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -617,15 +690,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
     <col min="4" max="4" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -657,14 +730,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3">
         <v>10013887</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="12" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -675,8 +748,8 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>50</v>
+      <c r="B4" s="13" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -684,12 +757,11 @@
     <hyperlink ref="D3" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
     <hyperlink ref="D2" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId4"/>
     <hyperlink ref="B4" r:id="rId5"/>
-    <hyperlink ref="B2" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -698,7 +770,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,7 +800,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -739,7 +811,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -750,7 +822,7 @@
         <v>37</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -758,7 +830,7 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -798,7 +870,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="3">
-        <v>9029032344</v>
+        <v>8328053255</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -806,7 +878,7 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -814,7 +886,7 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" s="10"/>
     </row>
@@ -945,7 +1017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -957,7 +1029,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -966,7 +1038,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1600,4 +1672,86 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="14">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/HIS_DATA_WorkBook.xlsx
+++ b/TestData/HIS_DATA_WorkBook.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10013887\PycharmProjects\Testing_Repo\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10013887\Project_AIG\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31FE273-350D-4023-884C-F590D8FEEA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -17,27 +18,15 @@
     <sheet name="Masters" sheetId="2" r:id="rId3"/>
     <sheet name="Inventory_Options" sheetId="4" r:id="rId4"/>
     <sheet name="Indent_Items" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="Indent_Issue" sheetId="6" r:id="rId6"/>
+    <sheet name="Adjustments" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
   <si>
     <t>Queries</t>
   </si>
@@ -213,9 +202,6 @@
     <t>Department_name</t>
   </si>
   <si>
-    <t>1/4 X 3/16 STRAIGHT CONNECTOR</t>
-  </si>
-  <si>
     <t>search_text</t>
   </si>
   <si>
@@ -225,23 +211,41 @@
     <t>Indent Items</t>
   </si>
   <si>
-    <t>ACIVIR 200MG DT TAB</t>
-  </si>
-  <si>
     <t>Indent Approval</t>
   </si>
   <si>
-    <t>Mani@552350</t>
+    <t>DOLO-650MG-TAB</t>
+  </si>
+  <si>
+    <t>12070 BRAVA TAPES</t>
+  </si>
+  <si>
+    <t>Dropdown_option</t>
+  </si>
+  <si>
+    <t>Nikith@4744</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>item_name</t>
+  </si>
+  <si>
+    <t>AVAGARD CHG 4% HAND SCRUB 500ML</t>
+  </si>
+  <si>
+    <t>MICROPORE -2 INCH PLASTER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,6 +306,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -339,7 +350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -379,10 +390,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -687,11 +701,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +749,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3">
-        <v>10013887</v>
+        <v>10015522</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>50</v>
@@ -749,16 +763,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="D2" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B4" r:id="rId5"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -766,7 +780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -937,7 +951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1014,7 +1028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1675,17 +1689,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
@@ -1703,16 +1717,16 @@
         <v>57</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>59</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>60</v>
       </c>
       <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>55</v>
@@ -1721,7 +1735,7 @@
         <v>56</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E2" s="14">
         <v>5</v>
@@ -1729,9 +1743,9 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E3" s="14">
@@ -1745,13 +1759,67 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7844E7-B2C2-4511-897A-69FCDE7E1E7E}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>